--- a/proj_wikipedia/records_athletics/outputs/tables/records_athletics_table_raw.xlsx
+++ b/proj_wikipedia/records_athletics/outputs/tables/records_athletics_table_raw.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="615">
   <si>
     <t>Event</t>
   </si>
@@ -423,7 +423,7 @@
     <t>9:14.09</t>
   </si>
   <si>
-    <t>14:20.87</t>
+    <t>14:18.37</t>
   </si>
   <si>
     <t>19:14</t>
@@ -1086,7 +1086,7 @@
     <t>14 September 2007</t>
   </si>
   <si>
-    <t>29 July 2011</t>
+    <t>8 June 2017</t>
   </si>
   <si>
     <t>13 October 2013</t>
@@ -1356,9 +1356,6 @@
     <t>Qatar Athletic Super Grand Prix</t>
   </si>
   <si>
-    <t>DN Galan</t>
-  </si>
-  <si>
     <t>4 Mile of Groningen</t>
   </si>
   <si>
@@ -1542,64 +1539,64 @@
     <t>Doha, Qatar</t>
   </si>
   <si>
+    <t>Groningen, Netherlands</t>
+  </si>
+  <si>
+    <t>Prague, Czech Republic</t>
+  </si>
+  <si>
+    <t>Ras al-Khaimah, United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Borgholzhausen, Germany</t>
+  </si>
+  <si>
+    <t>Mengerskirchen, Germany</t>
+  </si>
+  <si>
+    <t>Warstein, Germany</t>
+  </si>
+  <si>
+    <t>Nakuru, Kenya</t>
+  </si>
+  <si>
+    <t>Kisumu, Kenya</t>
+  </si>
+  <si>
+    <t>Victoria, Canada</t>
+  </si>
+  <si>
+    <t>Thika, Kenya</t>
+  </si>
+  <si>
+    <t>State College, United States</t>
+  </si>
+  <si>
+    <t>Allston, United States</t>
+  </si>
+  <si>
+    <t>Kent, United States</t>
+  </si>
+  <si>
+    <t>Liévin, France</t>
+  </si>
+  <si>
+    <t>Albuquerque, United States</t>
+  </si>
+  <si>
+    <t>Stuttgart, Germany</t>
+  </si>
+  <si>
+    <t>Boston, United States</t>
+  </si>
+  <si>
+    <t>Birmingham, United Kingdom</t>
+  </si>
+  <si>
+    <t>Budapest, Hungary</t>
+  </si>
+  <si>
     <t>Stockholm, Sweden</t>
-  </si>
-  <si>
-    <t>Groningen, Netherlands</t>
-  </si>
-  <si>
-    <t>Prague, Czech Republic</t>
-  </si>
-  <si>
-    <t>Ras al-Khaimah, United Arab Emirates</t>
-  </si>
-  <si>
-    <t>Borgholzhausen, Germany</t>
-  </si>
-  <si>
-    <t>Mengerskirchen, Germany</t>
-  </si>
-  <si>
-    <t>Warstein, Germany</t>
-  </si>
-  <si>
-    <t>Nakuru, Kenya</t>
-  </si>
-  <si>
-    <t>Kisumu, Kenya</t>
-  </si>
-  <si>
-    <t>Victoria, Canada</t>
-  </si>
-  <si>
-    <t>Thika, Kenya</t>
-  </si>
-  <si>
-    <t>State College, United States</t>
-  </si>
-  <si>
-    <t>Allston, United States</t>
-  </si>
-  <si>
-    <t>Kent, United States</t>
-  </si>
-  <si>
-    <t>Liévin, France</t>
-  </si>
-  <si>
-    <t>Albuquerque, United States</t>
-  </si>
-  <si>
-    <t>Stuttgart, Germany</t>
-  </si>
-  <si>
-    <t>Boston, United States</t>
-  </si>
-  <si>
-    <t>Birmingham, United Kingdom</t>
-  </si>
-  <si>
-    <t>Budapest, Hungary</t>
   </si>
   <si>
     <t>Ghent, Belgium</t>
@@ -1960,19 +1957,19 @@
         <v>415</v>
       </c>
       <c r="F2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="3">
@@ -1992,19 +1989,19 @@
         <v>416</v>
       </c>
       <c r="F3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="4">
@@ -2024,19 +2021,19 @@
         <v>417</v>
       </c>
       <c r="F4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="5">
@@ -2056,19 +2053,19 @@
         <v>418</v>
       </c>
       <c r="F5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="6">
@@ -2088,19 +2085,19 @@
         <v>419</v>
       </c>
       <c r="F6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="7">
@@ -2120,19 +2117,19 @@
         <v>417</v>
       </c>
       <c r="F7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H7" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="8">
@@ -2152,19 +2149,19 @@
         <v>420</v>
       </c>
       <c r="F8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G8" t="s">
         <v>191</v>
       </c>
       <c r="H8" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I8" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J8" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="9">
@@ -2184,19 +2181,19 @@
         <v>421</v>
       </c>
       <c r="F9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="10">
@@ -2216,19 +2213,19 @@
         <v>422</v>
       </c>
       <c r="F10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G10" t="s">
         <v>191</v>
       </c>
       <c r="H10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I10" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J10" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="11">
@@ -2248,19 +2245,19 @@
         <v>191</v>
       </c>
       <c r="F11" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G11" t="s">
         <v>191</v>
       </c>
       <c r="H11" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I11" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J11" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="12">
@@ -2280,19 +2277,19 @@
         <v>420</v>
       </c>
       <c r="F12" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G12" t="s">
         <v>191</v>
       </c>
       <c r="H12" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I12" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="13">
@@ -2312,19 +2309,19 @@
         <v>191</v>
       </c>
       <c r="F13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G13" t="s">
         <v>191</v>
       </c>
       <c r="H13" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I13" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J13" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="14">
@@ -2344,19 +2341,19 @@
         <v>421</v>
       </c>
       <c r="F14" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G14" t="s">
         <v>191</v>
       </c>
       <c r="H14" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I14" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J14" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="15">
@@ -2376,19 +2373,19 @@
         <v>423</v>
       </c>
       <c r="F15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G15" t="s">
         <v>191</v>
       </c>
       <c r="H15" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I15" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J15" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="16">
@@ -2408,19 +2405,19 @@
         <v>424</v>
       </c>
       <c r="F16" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G16" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H16" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I16" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J16" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="17">
@@ -2440,19 +2437,19 @@
         <v>421</v>
       </c>
       <c r="F17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G17" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H17" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I17" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J17" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="18">
@@ -2472,19 +2469,19 @@
         <v>425</v>
       </c>
       <c r="F18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G18" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H18" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J18" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="19">
@@ -2504,19 +2501,19 @@
         <v>426</v>
       </c>
       <c r="F19" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G19" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H19" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I19" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J19" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="20">
@@ -2536,19 +2533,19 @@
         <v>427</v>
       </c>
       <c r="F20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G20" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H20" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I20" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J20" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="21">
@@ -2568,19 +2565,19 @@
         <v>428</v>
       </c>
       <c r="F21" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G21" t="s">
         <v>191</v>
       </c>
       <c r="H21" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I21" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="22">
@@ -2600,19 +2597,19 @@
         <v>429</v>
       </c>
       <c r="F22" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G22" t="s">
         <v>191</v>
       </c>
       <c r="H22" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I22" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J22" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="23">
@@ -2632,19 +2629,19 @@
         <v>430</v>
       </c>
       <c r="F23" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G23" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H23" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I23" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J23" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="24">
@@ -2664,19 +2661,19 @@
         <v>431</v>
       </c>
       <c r="F24" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G24" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H24" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I24" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J24" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="25">
@@ -2696,19 +2693,19 @@
         <v>432</v>
       </c>
       <c r="F25" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G25" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H25" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I25" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="26">
@@ -2728,19 +2725,19 @@
         <v>431</v>
       </c>
       <c r="F26" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G26" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H26" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I26" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J26" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="27">
@@ -2760,19 +2757,19 @@
         <v>433</v>
       </c>
       <c r="F27" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G27" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H27" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I27" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J27" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="28">
@@ -2792,19 +2789,19 @@
         <v>433</v>
       </c>
       <c r="F28" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G28" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H28" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I28" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J28" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="29">
@@ -2824,19 +2821,19 @@
         <v>434</v>
       </c>
       <c r="F29" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G29" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H29" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I29" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J29" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="30">
@@ -2856,19 +2853,19 @@
         <v>435</v>
       </c>
       <c r="F30" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G30" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H30" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I30" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J30" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="31">
@@ -2888,19 +2885,19 @@
         <v>436</v>
       </c>
       <c r="F31" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G31" t="s">
         <v>191</v>
       </c>
       <c r="H31" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I31" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J31" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="32">
@@ -2920,19 +2917,19 @@
         <v>417</v>
       </c>
       <c r="F32" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G32" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H32" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I32" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J32" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="33">
@@ -2952,19 +2949,19 @@
         <v>437</v>
       </c>
       <c r="F33" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G33" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H33" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I33" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J33" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="34">
@@ -2984,19 +2981,19 @@
         <v>415</v>
       </c>
       <c r="F34" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G34" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H34" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I34" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J34" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="35">
@@ -3016,19 +3013,19 @@
         <v>191</v>
       </c>
       <c r="F35" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G35" t="s">
         <v>191</v>
       </c>
       <c r="H35" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I35" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J35" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="36">
@@ -3048,19 +3045,19 @@
         <v>191</v>
       </c>
       <c r="F36" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G36" t="s">
         <v>191</v>
       </c>
       <c r="H36" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I36" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J36" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="37">
@@ -3080,19 +3077,19 @@
         <v>191</v>
       </c>
       <c r="F37" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G37" t="s">
         <v>191</v>
       </c>
       <c r="H37" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I37" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J37" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="38">
@@ -3112,19 +3109,19 @@
         <v>191</v>
       </c>
       <c r="F38" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G38" t="s">
         <v>191</v>
       </c>
       <c r="H38" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I38" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J38" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="39">
@@ -3144,19 +3141,19 @@
         <v>191</v>
       </c>
       <c r="F39" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G39" t="s">
         <v>191</v>
       </c>
       <c r="H39" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I39" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J39" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="40">
@@ -3176,19 +3173,19 @@
         <v>191</v>
       </c>
       <c r="F40" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G40" t="s">
         <v>191</v>
       </c>
       <c r="H40" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I40" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J40" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="41">
@@ -3208,19 +3205,19 @@
         <v>438</v>
       </c>
       <c r="F41" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G41" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H41" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I41" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J41" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="42">
@@ -3240,19 +3237,19 @@
         <v>436</v>
       </c>
       <c r="F42" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G42" t="s">
         <v>191</v>
       </c>
       <c r="H42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I42" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J42" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="43">
@@ -3278,13 +3275,13 @@
         <v>191</v>
       </c>
       <c r="H43" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I43" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J43" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="44">
@@ -3304,19 +3301,19 @@
         <v>439</v>
       </c>
       <c r="F44" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G44" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H44" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I44" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J44" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="45">
@@ -3336,19 +3333,19 @@
         <v>415</v>
       </c>
       <c r="F45" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G45" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H45" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I45" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J45" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="46">
@@ -3368,19 +3365,19 @@
         <v>417</v>
       </c>
       <c r="F46" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G46" t="s">
         <v>191</v>
       </c>
       <c r="H46" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I46" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J46" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="47">
@@ -3400,19 +3397,19 @@
         <v>439</v>
       </c>
       <c r="F47" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G47" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H47" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I47" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J47" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="48">
@@ -3432,19 +3429,19 @@
         <v>440</v>
       </c>
       <c r="F48" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G48" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H48" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I48" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J48" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="49">
@@ -3464,19 +3461,19 @@
         <v>417</v>
       </c>
       <c r="F49" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G49" t="s">
         <v>191</v>
       </c>
       <c r="H49" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I49" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J49" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="50">
@@ -3496,19 +3493,19 @@
         <v>421</v>
       </c>
       <c r="F50" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G50" t="s">
         <v>191</v>
       </c>
       <c r="H50" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I50" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J50" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="51">
@@ -3528,19 +3525,19 @@
         <v>441</v>
       </c>
       <c r="F51" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G51" t="s">
         <v>191</v>
       </c>
       <c r="H51" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I51" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J51" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="52">
@@ -3560,19 +3557,19 @@
         <v>440</v>
       </c>
       <c r="F52" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G52" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H52" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I52" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J52" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="53">
@@ -3592,19 +3589,19 @@
         <v>442</v>
       </c>
       <c r="F53" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G53" t="s">
         <v>191</v>
       </c>
       <c r="H53" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I53" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J53" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="54">
@@ -3624,19 +3621,19 @@
         <v>443</v>
       </c>
       <c r="F54" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G54" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H54" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I54" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J54" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="55">
@@ -3656,19 +3653,19 @@
         <v>417</v>
       </c>
       <c r="F55" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G55" t="s">
         <v>191</v>
       </c>
       <c r="H55" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I55" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J55" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="56">
@@ -3688,19 +3685,19 @@
         <v>415</v>
       </c>
       <c r="F56" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G56" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H56" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I56" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J56" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="57">
@@ -3720,19 +3717,19 @@
         <v>415</v>
       </c>
       <c r="F57" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G57" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H57" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I57" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J57" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="58">
@@ -3752,19 +3749,19 @@
         <v>438</v>
       </c>
       <c r="F58" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G58" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H58" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I58" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J58" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="59">
@@ -3784,19 +3781,19 @@
         <v>444</v>
       </c>
       <c r="F59" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G59" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H59" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I59" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J59" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="60">
@@ -3816,19 +3813,19 @@
         <v>445</v>
       </c>
       <c r="F60" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G60" t="s">
         <v>191</v>
       </c>
       <c r="H60" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I60" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J60" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="61">
@@ -3848,19 +3845,19 @@
         <v>191</v>
       </c>
       <c r="F61" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G61" t="s">
         <v>191</v>
       </c>
       <c r="H61" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I61" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J61" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="62">
@@ -3880,19 +3877,19 @@
         <v>431</v>
       </c>
       <c r="F62" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G62" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H62" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I62" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J62" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="63">
@@ -3912,19 +3909,19 @@
         <v>421</v>
       </c>
       <c r="F63" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G63" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H63" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I63" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J63" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="64">
@@ -3944,19 +3941,19 @@
         <v>431</v>
       </c>
       <c r="F64" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G64" t="s">
         <v>191</v>
       </c>
       <c r="H64" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I64" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J64" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="65">
@@ -3976,19 +3973,19 @@
         <v>446</v>
       </c>
       <c r="F65" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G65" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H65" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I65" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J65" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="66">
@@ -4008,19 +4005,19 @@
         <v>421</v>
       </c>
       <c r="F66" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G66" t="s">
         <v>191</v>
       </c>
       <c r="H66" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I66" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J66" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="67">
@@ -4031,28 +4028,28 @@
         <v>136</v>
       </c>
       <c r="C67" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D67" t="s">
         <v>357</v>
       </c>
       <c r="E67" t="s">
-        <v>447</v>
+        <v>422</v>
       </c>
       <c r="F67" t="s">
-        <v>509</v>
+        <v>476</v>
       </c>
       <c r="G67" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H67" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I67" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J67" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="68">
@@ -4069,22 +4066,22 @@
         <v>358</v>
       </c>
       <c r="E68" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F68" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G68" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H68" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I68" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J68" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="69">
@@ -4104,19 +4101,19 @@
         <v>417</v>
       </c>
       <c r="F69" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G69" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H69" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I69" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J69" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="70">
@@ -4133,22 +4130,22 @@
         <v>360</v>
       </c>
       <c r="E70" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F70" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G70" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H70" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I70" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J70" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="71">
@@ -4165,22 +4162,22 @@
         <v>360</v>
       </c>
       <c r="E71" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F71" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G71" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H71" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I71" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J71" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="72">
@@ -4197,22 +4194,22 @@
         <v>361</v>
       </c>
       <c r="E72" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F72" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G72" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H72" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I72" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J72" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="73">
@@ -4232,19 +4229,19 @@
         <v>191</v>
       </c>
       <c r="F73" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G73" t="s">
         <v>191</v>
       </c>
       <c r="H73" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I73" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J73" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="74">
@@ -4264,19 +4261,19 @@
         <v>191</v>
       </c>
       <c r="F74" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G74" t="s">
         <v>191</v>
       </c>
       <c r="H74" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I74" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J74" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="75">
@@ -4293,22 +4290,22 @@
         <v>360</v>
       </c>
       <c r="E75" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F75" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G75" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H75" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I75" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J75" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="76">
@@ -4325,22 +4322,22 @@
         <v>360</v>
       </c>
       <c r="E76" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F76" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G76" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H76" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I76" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J76" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="77">
@@ -4360,19 +4357,19 @@
         <v>191</v>
       </c>
       <c r="F77" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G77" t="s">
         <v>191</v>
       </c>
       <c r="H77" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I77" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J77" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="78">
@@ -4392,19 +4389,19 @@
         <v>433</v>
       </c>
       <c r="F78" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G78" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H78" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I78" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J78" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="79">
@@ -4424,19 +4421,19 @@
         <v>191</v>
       </c>
       <c r="F79" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G79" t="s">
         <v>191</v>
       </c>
       <c r="H79" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I79" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J79" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="80">
@@ -4456,19 +4453,19 @@
         <v>433</v>
       </c>
       <c r="F80" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G80" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H80" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I80" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J80" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="81">
@@ -4488,19 +4485,19 @@
         <v>433</v>
       </c>
       <c r="F81" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G81" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H81" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I81" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J81" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="82">
@@ -4520,19 +4517,19 @@
         <v>415</v>
       </c>
       <c r="F82" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G82" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H82" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I82" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J82" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="83">
@@ -4552,19 +4549,19 @@
         <v>415</v>
       </c>
       <c r="F83" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G83" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H83" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I83" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J83" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="84">
@@ -4581,22 +4578,22 @@
         <v>367</v>
       </c>
       <c r="E84" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F84" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G84" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H84" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I84" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J84" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="85">
@@ -4616,19 +4613,19 @@
         <v>431</v>
       </c>
       <c r="F85" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G85" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H85" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I85" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J85" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="86">
@@ -4648,19 +4645,19 @@
         <v>191</v>
       </c>
       <c r="F86" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G86" t="s">
         <v>191</v>
       </c>
       <c r="H86" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I86" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J86" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="87">
@@ -4677,22 +4674,22 @@
         <v>369</v>
       </c>
       <c r="E87" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F87" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G87" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H87" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I87" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J87" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="88">
@@ -4712,19 +4709,19 @@
         <v>191</v>
       </c>
       <c r="F88" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G88" t="s">
         <v>191</v>
       </c>
       <c r="H88" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I88" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J88" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="89">
@@ -4744,19 +4741,19 @@
         <v>191</v>
       </c>
       <c r="F89" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G89" t="s">
         <v>191</v>
       </c>
       <c r="H89" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I89" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J89" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="90">
@@ -4776,19 +4773,19 @@
         <v>191</v>
       </c>
       <c r="F90" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G90" t="s">
         <v>191</v>
       </c>
       <c r="H90" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I90" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J90" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="91">
@@ -4808,19 +4805,19 @@
         <v>191</v>
       </c>
       <c r="F91" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G91" t="s">
         <v>191</v>
       </c>
       <c r="H91" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I91" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J91" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="92">
@@ -4840,19 +4837,19 @@
         <v>415</v>
       </c>
       <c r="F92" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G92" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H92" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I92" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J92" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="93">
@@ -4869,22 +4866,22 @@
         <v>375</v>
       </c>
       <c r="E93" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F93" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="G93" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H93" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I93" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J93" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="94">
@@ -4904,19 +4901,19 @@
         <v>436</v>
       </c>
       <c r="F94" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G94" t="s">
         <v>191</v>
       </c>
       <c r="H94" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I94" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J94" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="95">
@@ -4942,13 +4939,13 @@
         <v>191</v>
       </c>
       <c r="H95" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I95" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J95" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="96">
@@ -4965,22 +4962,22 @@
         <v>377</v>
       </c>
       <c r="E96" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F96" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="G96" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H96" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I96" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J96" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="97">
@@ -5000,19 +4997,19 @@
         <v>439</v>
       </c>
       <c r="F97" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G97" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H97" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I97" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J97" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="98">
@@ -5032,19 +5029,19 @@
         <v>415</v>
       </c>
       <c r="F98" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G98" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H98" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I98" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J98" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="99">
@@ -5064,19 +5061,19 @@
         <v>443</v>
       </c>
       <c r="F99" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G99" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H99" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I99" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J99" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="100">
@@ -5096,19 +5093,19 @@
         <v>440</v>
       </c>
       <c r="F100" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G100" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H100" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I100" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J100" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="101">
@@ -5128,19 +5125,19 @@
         <v>443</v>
       </c>
       <c r="F101" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G101" t="s">
         <v>191</v>
       </c>
       <c r="H101" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I101" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J101" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="102">
@@ -5160,19 +5157,19 @@
         <v>440</v>
       </c>
       <c r="F102" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G102" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H102" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I102" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J102" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="103">
@@ -5192,19 +5189,19 @@
         <v>440</v>
       </c>
       <c r="F103" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G103" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H103" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I103" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J103" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="104">
@@ -5221,22 +5218,22 @@
         <v>339</v>
       </c>
       <c r="E104" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F104" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G104" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H104" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I104" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J104" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="105">
@@ -5256,19 +5253,19 @@
         <v>442</v>
       </c>
       <c r="F105" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G105" t="s">
         <v>191</v>
       </c>
       <c r="H105" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I105" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J105" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="106">
@@ -5288,19 +5285,19 @@
         <v>191</v>
       </c>
       <c r="F106" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G106" t="s">
         <v>191</v>
       </c>
       <c r="H106" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I106" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J106" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="107">
@@ -5320,19 +5317,19 @@
         <v>191</v>
       </c>
       <c r="F107" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="G107" t="s">
         <v>191</v>
       </c>
       <c r="H107" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I107" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J107" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="108">
@@ -5349,22 +5346,22 @@
         <v>386</v>
       </c>
       <c r="E108" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F108" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G108" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H108" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I108" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J108" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="109">
@@ -5381,22 +5378,22 @@
         <v>387</v>
       </c>
       <c r="E109" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F109" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="G109" t="s">
         <v>191</v>
       </c>
       <c r="H109" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I109" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J109" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="110">
@@ -5413,22 +5410,22 @@
         <v>388</v>
       </c>
       <c r="E110" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F110" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G110" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H110" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I110" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J110" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="111">
@@ -5445,22 +5442,22 @@
         <v>389</v>
       </c>
       <c r="E111" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F111" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="G111" t="s">
         <v>191</v>
       </c>
       <c r="H111" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I111" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J111" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="112">
@@ -5477,22 +5474,22 @@
         <v>390</v>
       </c>
       <c r="E112" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F112" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="G112" t="s">
         <v>191</v>
       </c>
       <c r="H112" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I112" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J112" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="113">
@@ -5509,22 +5506,22 @@
         <v>391</v>
       </c>
       <c r="E113" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F113" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="G113" t="s">
         <v>191</v>
       </c>
       <c r="H113" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I113" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J113" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="114">
@@ -5541,22 +5538,22 @@
         <v>392</v>
       </c>
       <c r="E114" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F114" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G114" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H114" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I114" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J114" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="115">
@@ -5573,22 +5570,22 @@
         <v>393</v>
       </c>
       <c r="E115" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F115" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G115" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H115" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I115" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J115" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="116">
@@ -5608,19 +5605,19 @@
         <v>191</v>
       </c>
       <c r="F116" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G116" t="s">
         <v>191</v>
       </c>
       <c r="H116" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I116" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J116" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="117">
@@ -5637,22 +5634,22 @@
         <v>395</v>
       </c>
       <c r="E117" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F117" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="G117" t="s">
         <v>191</v>
       </c>
       <c r="H117" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I117" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J117" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="118">
@@ -5669,22 +5666,22 @@
         <v>396</v>
       </c>
       <c r="E118" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F118" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G118" t="s">
         <v>191</v>
       </c>
       <c r="H118" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I118" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J118" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="119">
@@ -5704,19 +5701,19 @@
         <v>191</v>
       </c>
       <c r="F119" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G119" t="s">
         <v>191</v>
       </c>
       <c r="H119" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I119" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J119" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="120">
@@ -5733,22 +5730,22 @@
         <v>398</v>
       </c>
       <c r="E120" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F120" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G120" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H120" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I120" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J120" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="121">
@@ -5768,19 +5765,19 @@
         <v>191</v>
       </c>
       <c r="F121" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G121" t="s">
         <v>191</v>
       </c>
       <c r="H121" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I121" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J121" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="122">
@@ -5806,13 +5803,13 @@
         <v>191</v>
       </c>
       <c r="H122" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I122" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J122" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="123">
@@ -5829,22 +5826,22 @@
         <v>400</v>
       </c>
       <c r="E123" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F123" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G123" t="s">
         <v>191</v>
       </c>
       <c r="H123" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I123" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J123" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="124">
@@ -5861,22 +5858,22 @@
         <v>401</v>
       </c>
       <c r="E124" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F124" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G124" t="s">
         <v>191</v>
       </c>
       <c r="H124" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I124" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J124" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="125">
@@ -5896,19 +5893,19 @@
         <v>191</v>
       </c>
       <c r="F125" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G125" t="s">
         <v>191</v>
       </c>
       <c r="H125" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I125" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J125" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="126">
@@ -5934,13 +5931,13 @@
         <v>191</v>
       </c>
       <c r="H126" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I126" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J126" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="127">
@@ -5966,13 +5963,13 @@
         <v>191</v>
       </c>
       <c r="H127" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I127" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J127" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="128">
@@ -5998,13 +5995,13 @@
         <v>191</v>
       </c>
       <c r="H128" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I128" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J128" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="129">
@@ -6030,13 +6027,13 @@
         <v>191</v>
       </c>
       <c r="H129" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I129" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J129" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="130">
@@ -6062,13 +6059,13 @@
         <v>191</v>
       </c>
       <c r="H130" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I130" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J130" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="131">
@@ -6088,19 +6085,19 @@
         <v>191</v>
       </c>
       <c r="F131" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G131" t="s">
         <v>191</v>
       </c>
       <c r="H131" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I131" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J131" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="132">
@@ -6120,19 +6117,19 @@
         <v>438</v>
       </c>
       <c r="F132" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G132" t="s">
         <v>191</v>
       </c>
       <c r="H132" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I132" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J132" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="133">
@@ -6152,19 +6149,19 @@
         <v>191</v>
       </c>
       <c r="F133" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G133" t="s">
         <v>191</v>
       </c>
       <c r="H133" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I133" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J133" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="134">
@@ -6184,19 +6181,19 @@
         <v>191</v>
       </c>
       <c r="F134" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G134" t="s">
         <v>191</v>
       </c>
       <c r="H134" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I134" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J134" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="135">
@@ -6216,19 +6213,19 @@
         <v>438</v>
       </c>
       <c r="F135" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G135" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H135" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I135" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J135" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="136">
@@ -6245,22 +6242,22 @@
         <v>408</v>
       </c>
       <c r="E136" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F136" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="G136" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H136" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I136" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J136" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="137">
@@ -6277,22 +6274,22 @@
         <v>409</v>
       </c>
       <c r="E137" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F137" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G137" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H137" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I137" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J137" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="138">
@@ -6309,22 +6306,22 @@
         <v>410</v>
       </c>
       <c r="E138" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F138" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G138" t="s">
         <v>191</v>
       </c>
       <c r="H138" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I138" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J138" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="139">
@@ -6344,19 +6341,19 @@
         <v>191</v>
       </c>
       <c r="F139" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G139" t="s">
         <v>191</v>
       </c>
       <c r="H139" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I139" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J139" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="140">
@@ -6382,13 +6379,13 @@
         <v>191</v>
       </c>
       <c r="H140" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I140" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J140" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="141">
@@ -6414,13 +6411,13 @@
         <v>191</v>
       </c>
       <c r="H141" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I141" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J141" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="142">
@@ -6446,13 +6443,13 @@
         <v>191</v>
       </c>
       <c r="H142" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I142" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J142" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="143">
@@ -6472,19 +6469,19 @@
         <v>191</v>
       </c>
       <c r="F143" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G143" t="s">
         <v>191</v>
       </c>
       <c r="H143" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I143" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J143" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="144">
@@ -6510,13 +6507,13 @@
         <v>191</v>
       </c>
       <c r="H144" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I144" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J144" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="145">
@@ -6533,22 +6530,22 @@
         <v>413</v>
       </c>
       <c r="E145" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F145" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G145" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H145" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I145" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J145" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="146">
@@ -6565,22 +6562,22 @@
         <v>414</v>
       </c>
       <c r="E146" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F146" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G146" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H146" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I146" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J146" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="147">
@@ -6606,13 +6603,13 @@
         <v>191</v>
       </c>
       <c r="H147" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I147" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J147" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="148">
@@ -6638,13 +6635,13 @@
         <v>191</v>
       </c>
       <c r="H148" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I148" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J148" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="149">
@@ -6670,13 +6667,13 @@
         <v>191</v>
       </c>
       <c r="H149" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I149" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J149" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="150">
@@ -6702,13 +6699,13 @@
         <v>191</v>
       </c>
       <c r="H150" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I150" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J150" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>
